--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -1,83 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/mental-health-ontology/UpperLevel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC901447-735D-3545-9FE0-21F0015FDDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Equivalent to relationship</t>
-  </si>
-  <si>
-    <t>Parent relationship</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,22 +51,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,42 +413,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Equivalent to relationship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent relationship</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>has test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -467,13 +467,13 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>has test</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>part of</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -464,7 +464,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GMHOR:0000001</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>test</t>
@@ -473,10 +477,14 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>has part</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>some thing</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -477,7 +477,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>precedes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -1,38 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676892D-5A26-4E44-97AF-05341E9ADC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Equivalent to relationship</t>
+  </si>
+  <si>
+    <t>Parent relationship</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>GMHOR:0000001</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>some thing</t>
+  </si>
+  <si>
+    <t>Relationship type</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,82 +105,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,80 +410,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Equivalent to relationship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Parent relationship</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Definition</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GMHOR:0000001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>precedes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>some thing</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -1,93 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676892D-5A26-4E44-97AF-05341E9ADC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Equivalent to relationship</t>
-  </si>
-  <si>
-    <t>Parent relationship</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>GMHOR:0000001</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>some thing</t>
-  </si>
-  <si>
-    <t>Relationship type</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,24 +50,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,53 +413,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Equivalent to relationship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent relationship</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Relationship type</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GMHOR:0000001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LSR no</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AnnotationPropery</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -486,7 +486,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AnnotationPropery</t>
+          <t>AnnotationProperty</t>
         </is>
       </c>
     </row>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,32 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BFO:0000117</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -514,7 +514,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,36 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BFO:0000055</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
